--- a/Prototoype 2 RevC/BOM_COMPLETE.xlsx
+++ b/Prototoype 2 RevC/BOM_COMPLETE.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="440" windowWidth="22220" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="1440" yWindow="440" windowWidth="23980" windowHeight="20560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1525,96 +1525,96 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
